--- a/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 12 01.xlsx
+++ b/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/injury run status 2019 12 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/write_ups/02_monthly_injury_temperature_paper/run status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809DA31-FCC6-A540-B3FB-5DA46555BF07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E34D55B-0B0E-6147-93B1-D7C7CEB6DC42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29140" yWindow="-6240" windowWidth="28800" windowHeight="20780" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
+    <workbookView xWindow="-35280" yWindow="-6380" windowWidth="27360" windowHeight="20120" xr2:uid="{EEED0C99-B3C8-514A-88F3-BD9C55295003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="31">
   <si>
     <t>Injury</t>
   </si>
@@ -527,12 +527,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C04E9F-441B-3545-BD1F-8BC23CAF93DD}">
-  <dimension ref="A1:AX102"/>
+  <dimension ref="A1:BF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="AW16" sqref="AW16"/>
+      <selection pane="bottomLeft" activeCell="BE22" sqref="BE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +583,7 @@
     <col min="50" max="50" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="AW1" s="6"/>
       <c r="AX1" s="6"/>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +782,29 @@
       <c r="AX2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -919,8 +940,29 @@
       <c r="AX3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ3">
+        <v>85</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1050,8 +1092,29 @@
       <c r="AX4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ4">
+        <v>85</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1183,8 +1246,29 @@
       <c r="AX5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ5">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1314,8 +1398,29 @@
       <c r="AX6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ6">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1444,8 +1549,29 @@
       <c r="AW7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ7">
+        <v>65</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1577,8 +1703,29 @@
       <c r="AX8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ8">
+        <v>65</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1703,8 +1850,29 @@
       <c r="AX9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ9">
+        <v>55</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1828,8 +1996,29 @@
       <c r="AX10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ10">
+        <v>55</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1959,8 +2148,29 @@
       <c r="AX11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ11">
+        <v>45</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2095,8 +2305,29 @@
       <c r="AX12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ12">
+        <v>45</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2423,29 @@
       <c r="AX13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ13">
+        <v>35</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2285,8 +2537,29 @@
       <c r="AX14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ14">
+        <v>35</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2376,8 +2649,29 @@
       <c r="AX15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ15">
+        <v>25</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2467,8 +2761,29 @@
       <c r="AX16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ16">
+        <v>25</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2558,8 +2873,29 @@
       <c r="AX17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ17">
+        <v>15</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2649,8 +2985,29 @@
       <c r="AX18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ18">
+        <v>15</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2742,8 +3099,29 @@
       <c r="AX19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ19">
+        <v>5</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2837,8 +3215,29 @@
       <c r="AX20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ20">
+        <v>5</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2932,8 +3331,29 @@
       <c r="AX21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3027,8 +3447,29 @@
       <c r="AX22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3146,7 +3587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -3204,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -3320,7 +3761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -3439,7 +3880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -3558,7 +3999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -5770,9 +6211,6 @@
       </c>
       <c r="AW86" t="s">
         <v>9</v>
-      </c>
-      <c r="AX86" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.2">
